--- a/BalanceSheet/SHW_bal.xlsx
+++ b/BalanceSheet/SHW_bal.xlsx
@@ -2604,19 +2604,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-26000000.0</v>
+        <v>798000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-147400000.0</v>
+        <v>846000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-3800000.0</v>
+        <v>957000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-3600000.0</v>
+        <v>953000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>9500000.0</v>
+        <v>950000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>969900000.0</v>
@@ -4670,7 +4670,7 @@
         <v>11276000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>10265000000.0</v>
+        <v>8523400000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>8718700000.0</v>
@@ -4797,7 +4797,7 @@
         <v>11515000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>10427000000.0</v>
+        <v>8685200000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>8908300000.0</v>
